--- a/scripts/arquivos_example/relacao_frases.xlsx
+++ b/scripts/arquivos_example/relacao_frases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="283">
   <si>
     <t xml:space="preserve">Num</t>
   </si>
@@ -61,60 +61,63 @@
     <t xml:space="preserve">P201, P202, P280, P372, P373, P380, P401, P501</t>
   </si>
   <si>
+    <t xml:space="preserve">Bomba explodindo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O produto não possui outros perigos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosivos – Categoria 1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H201 Explosivo; perigo de explosão em massa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P210, P230, P240, P250, P280, P370 + P380, P372, P373, P401, P501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosivos – Categoria 1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H202 Explosivo; perigo grave de Projeção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosivos – Categoria 1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H203 Explosivo; perigo de incêndio, deslocamento de ar ou projeções</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosivos – Categoria 1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H204 Perigo de incêndio ou projeções</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P210, P240, P250, P280, P370 + P380, P372, P373, P374, P401, P501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atenção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosivos – Categoria 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H205 Perigo de explosão em masa em caso de incêndio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosivos – Categoria 1.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">a</t>
   </si>
   <si>
-    <t xml:space="preserve">Perigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O produto não possui outros perigos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosivos – Categoria 1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H201 Explosivo; perigo de explosão em massa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P210, P230, P240, P250, P280, P370 + P380, P372, P373, P401, P501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosivos – Categoria 1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H202 Explosivo; perigo grave de Projeção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosivos – Categoria 1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H203 Explosivo; perigo de incêndio, deslocamento de ar ou projeções</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosivos – Categoria 1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H204 Perigo de incêndio ou projeções</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P210, P240, P250, P280, P370 + P380, P372, P373, P374, P401, P501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atenção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosivos – Categoria 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H205 Perigo de explosão em masa em caso de incêndio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosivos – Categoria 1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/E</t>
-  </si>
-  <si>
     <t xml:space="preserve">D.2</t>
   </si>
   <si>
@@ -127,6 +130,9 @@
     <t xml:space="preserve">P210, P377, P381, P403</t>
   </si>
   <si>
+    <t xml:space="preserve">Chama</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gases inflamáveis – Categoria 2</t>
   </si>
   <si>
@@ -187,6 +193,9 @@
     <t xml:space="preserve">P220, P244, P370 + P376, P403</t>
   </si>
   <si>
+    <t xml:space="preserve">Chama sobre circulo</t>
+  </si>
+  <si>
     <t xml:space="preserve">D.5</t>
   </si>
   <si>
@@ -199,6 +208,9 @@
     <t xml:space="preserve">P410 + P403</t>
   </si>
   <si>
+    <t xml:space="preserve">Cilindro de gás</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gases sob pressão – Categoria Gás liquefeito</t>
   </si>
   <si>
@@ -280,6 +292,9 @@
     <t xml:space="preserve">H241 Pode explodir ou incendiar sob ação do calor</t>
   </si>
   <si>
+    <t xml:space="preserve">Bomba explodindo + Chama</t>
+  </si>
+  <si>
     <t xml:space="preserve">Substâncias e mistura autorreativas – Categoria C e D</t>
   </si>
   <si>
@@ -427,6 +442,9 @@
     <t xml:space="preserve">P234, P390, P406</t>
   </si>
   <si>
+    <t xml:space="preserve">Corrosão</t>
+  </si>
+  <si>
     <t xml:space="preserve">D.17</t>
   </si>
   <si>
@@ -439,6 +457,9 @@
     <t xml:space="preserve">P264, P270, P301 + P310, P321, P330, P405, P501</t>
   </si>
   <si>
+    <t xml:space="preserve">Crânio e ossos cruzados</t>
+  </si>
+  <si>
     <t xml:space="preserve">Toxicidade aguda – Oral – Categoria 2</t>
   </si>
   <si>
@@ -457,6 +478,9 @@
     <t xml:space="preserve">P264, P270, P301 + P312, P330, P501</t>
   </si>
   <si>
+    <t xml:space="preserve">Ponto de exclamação</t>
+  </si>
+  <si>
     <t xml:space="preserve">Toxicidade aguda – Oral – Categoria 5</t>
   </si>
   <si>
@@ -628,6 +652,9 @@
     <t xml:space="preserve">P261, P284, P304 + P340, P342 + P311, P501</t>
   </si>
   <si>
+    <t xml:space="preserve">Perigoso à saude</t>
+  </si>
+  <si>
     <t xml:space="preserve">D.23</t>
   </si>
   <si>
@@ -782,6 +809,9 @@
   </si>
   <si>
     <t xml:space="preserve">P273, P391, P501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meio ambiente</t>
   </si>
   <si>
     <t xml:space="preserve">Perigoso ao ambiente aquático – Agudo – Categoria 2</t>
@@ -848,7 +878,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -876,6 +906,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -920,7 +955,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -938,6 +973,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -964,11 +1003,11 @@
   </sheetPr>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F106" activeCellId="0" sqref="F106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.69"/>
@@ -1036,7 +1075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -1065,7 +1104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -1094,7 +1133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -1123,7 +1162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -1152,7 +1191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -1172,7 +1211,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>26</v>
@@ -1181,7 +1220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -1192,19 +1231,19 @@
         <v>1.6</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="H8" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>15</v>
@@ -1215,22 +1254,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>14</v>
@@ -1239,27 +1278,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>26</v>
@@ -1268,85 +1307,85 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>14</v>
@@ -1355,27 +1394,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>13</v>
+      <c r="G14" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>26</v>
@@ -1384,27 +1423,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>26</v>
@@ -1413,27 +1452,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>14</v>
@@ -1447,22 +1486,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>26</v>
@@ -1471,27 +1510,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>26</v>
@@ -1500,28 +1539,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F19" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="H19" s="0" t="s">
         <v>26</v>
       </c>
@@ -1529,27 +1568,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>57</v>
+        <v>67</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>26</v>
@@ -1558,27 +1597,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>13</v>
+        <v>71</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>14</v>
@@ -1587,27 +1626,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>13</v>
+        <v>71</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>14</v>
@@ -1616,27 +1655,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>13</v>
+      <c r="G23" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>26</v>
@@ -1650,22 +1689,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>26</v>
@@ -1674,27 +1713,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>13</v>
+        <v>82</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>14</v>
@@ -1703,27 +1742,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>13</v>
+        <v>82</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>26</v>
@@ -1732,24 +1771,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>13</v>
@@ -1761,27 +1800,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>14</v>
@@ -1790,27 +1829,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>13</v>
+        <v>93</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>14</v>
@@ -1819,27 +1858,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>13</v>
+        <v>93</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>26</v>
@@ -1853,51 +1892,51 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>13</v>
+        <v>99</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>14</v>
@@ -1906,27 +1945,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>13</v>
+        <v>102</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>14</v>
@@ -1935,27 +1974,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>13</v>
+        <v>106</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>14</v>
@@ -1964,27 +2003,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>13</v>
+        <v>106</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>26</v>
@@ -1993,27 +2032,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>13</v>
+        <v>112</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>14</v>
@@ -2022,27 +2061,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>13</v>
+        <v>112</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>14</v>
@@ -2051,27 +2090,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>13</v>
+        <v>116</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>26</v>
@@ -2080,27 +2119,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>13</v>
+        <v>120</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>14</v>
@@ -2109,27 +2148,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>13</v>
+        <v>123</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>14</v>
@@ -2138,27 +2177,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>13</v>
+        <v>123</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>26</v>
@@ -2167,27 +2206,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>13</v>
+        <v>120</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>14</v>
@@ -2196,27 +2235,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D43" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F43" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>13</v>
+        <v>123</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>14</v>
@@ -2225,27 +2264,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D44" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>13</v>
+      <c r="G44" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>26</v>
@@ -2254,24 +2293,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>13</v>
@@ -2283,27 +2322,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>14</v>
@@ -2312,27 +2351,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>13</v>
+        <v>131</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>14</v>
@@ -2341,27 +2380,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>13</v>
+        <v>131</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>26</v>
@@ -2375,22 +2414,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>26</v>
@@ -2404,22 +2443,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>26</v>
@@ -2433,22 +2472,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>14</v>
@@ -2457,27 +2496,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>14</v>
@@ -2486,27 +2525,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>14</v>
@@ -2520,22 +2559,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>26</v>
@@ -2544,27 +2583,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>26</v>
@@ -2573,27 +2612,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>14</v>
@@ -2602,27 +2641,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>14</v>
@@ -2631,27 +2670,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>14</v>
@@ -2660,27 +2699,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>26</v>
@@ -2689,27 +2728,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>26</v>
@@ -2718,27 +2757,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>14</v>
@@ -2747,27 +2786,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>14</v>
@@ -2776,27 +2815,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>14</v>
@@ -2805,27 +2844,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>26</v>
@@ -2834,27 +2873,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>26</v>
@@ -2863,27 +2902,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>14</v>
@@ -2892,27 +2931,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>14</v>
@@ -2921,27 +2960,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>14</v>
@@ -2950,27 +2989,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>26</v>
@@ -2979,27 +3018,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>26</v>
@@ -3008,27 +3047,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>14</v>
@@ -3037,27 +3076,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>26</v>
@@ -3066,27 +3105,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>26</v>
@@ -3100,22 +3139,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>14</v>
@@ -3124,27 +3163,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>26</v>
@@ -3153,27 +3192,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>14</v>
@@ -3182,28 +3221,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D77" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="G77" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="H77" s="0" t="s">
         <v>14</v>
       </c>
@@ -3211,27 +3250,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>26</v>
@@ -3240,27 +3279,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>14</v>
@@ -3269,27 +3308,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>14</v>
@@ -3298,27 +3337,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F81" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="F81" s="0" t="s">
-        <v>209</v>
-      </c>
       <c r="G81" s="0" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>26</v>
@@ -3327,27 +3366,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>14</v>
@@ -3356,27 +3395,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>14</v>
@@ -3385,27 +3424,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>26</v>
@@ -3414,56 +3453,56 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>14</v>
@@ -3472,27 +3511,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>26</v>
@@ -3501,27 +3540,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>26</v>
@@ -3530,27 +3569,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>14</v>
@@ -3559,27 +3598,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>26</v>
@@ -3588,27 +3627,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>14</v>
@@ -3617,27 +3656,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>91</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>26</v>
@@ -3651,22 +3690,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>26</v>
@@ -3675,85 +3714,85 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>93</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>94</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>95</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>26</v>
@@ -3762,114 +3801,114 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>96</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D97" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F97" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="G97" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="F97" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="G97" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="H97" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>97</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>98</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>99</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>26</v>

--- a/scripts/arquivos_example/relacao_frases.xlsx
+++ b/scripts/arquivos_example/relacao_frases.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="294">
   <si>
     <t xml:space="preserve">Num</t>
   </si>
@@ -37,19 +37,19 @@
     <t xml:space="preserve">Frase_de_perigo</t>
   </si>
   <si>
-    <t xml:space="preserve">Frase_Precaucao</t>
+    <t xml:space="preserve">Frase_de_precaucao</t>
   </si>
   <si>
     <t xml:space="preserve">Pictograma</t>
   </si>
   <si>
-    <t xml:space="preserve">Palavra_de_advertência</t>
+    <t xml:space="preserve">Palavra_de_advertencia</t>
   </si>
   <si>
     <t xml:space="preserve">Outros_perigos</t>
   </si>
   <si>
-    <t xml:space="preserve">D.1</t>
+    <t xml:space="preserve">C.1</t>
   </si>
   <si>
     <t xml:space="preserve">Explosivos – Explosivos instáveis</t>
@@ -58,10 +58,10 @@
     <t xml:space="preserve">H200 Explosivo; instável</t>
   </si>
   <si>
-    <t xml:space="preserve">P201, P202, P280, P372, P373, P380, P401, P501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bomba explodindo</t>
+    <t xml:space="preserve">P201, P250, P280, P370 + P372 + P380 + P373, P401, P503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explosivo</t>
   </si>
   <si>
     <t xml:space="preserve">Perigo</t>
@@ -70,58 +70,55 @@
     <t xml:space="preserve">O produto não possui outros perigos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Explosivos – Categoria 1.1</t>
+    <t xml:space="preserve">Explosivos – Divisão 1.1</t>
   </si>
   <si>
     <t xml:space="preserve">H201 Explosivo; perigo de explosão em massa</t>
   </si>
   <si>
-    <t xml:space="preserve">P210, P230, P240, P250, P280, P370 + P380, P372, P373, P401, P501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosivos – Categoria 1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H202 Explosivo; perigo grave de Projeção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosivos – Categoria 1.3</t>
+    <t xml:space="preserve">P210, P230, P234, P240, P250, P280, P370 + P372 + P380 + P373, P401, P503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosivos – Divisão 1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H202 Explosivo; perigo grave de projeção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosivos – Divisão 1.3</t>
   </si>
   <si>
     <t xml:space="preserve">H203 Explosivo; perigo de incêndio, deslocamento de ar ou projeções</t>
   </si>
   <si>
-    <t xml:space="preserve">Explosivos – Categoria 1.4</t>
+    <t xml:space="preserve">Explosivos – Divisão 1.4</t>
   </si>
   <si>
     <t xml:space="preserve">H204 Perigo de incêndio ou projeções</t>
   </si>
   <si>
-    <t xml:space="preserve">P210, P240, P250, P280, P370 + P380, P372, P373, P374, P401, P501</t>
+    <t xml:space="preserve">P210, P234, P240, P250, P280, P370 + P372 + P380 + P373, P401, P503</t>
   </si>
   <si>
     <t xml:space="preserve">Atenção</t>
   </si>
   <si>
-    <t xml:space="preserve">Explosivos – Categoria 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H205 Perigo de explosão em masa em caso de incêndio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosivos – Categoria 1.6</t>
+    <t xml:space="preserve">Explosivos – Divisão 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H205 Perigo de explosão em massa em caso de incêndio</t>
   </si>
   <si>
     <t xml:space="preserve">a</t>
   </si>
   <si>
-    <t xml:space="preserve">D.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gases inflamáveis – Categoria 1</t>
+    <t xml:space="preserve">Explosivos – Divisão 1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gás inflamável – Categoria 1A</t>
   </si>
   <si>
     <t xml:space="preserve">H220 Gás extremamente inflamável</t>
@@ -130,34 +127,37 @@
     <t xml:space="preserve">P210, P377, P381, P403</t>
   </si>
   <si>
-    <t xml:space="preserve">Chama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gases inflamáveis – Categoria 2</t>
+    <t xml:space="preserve">inflamavel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gás pirofórico – Categoria 1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P210, P222, P280, P377, P381, P403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gás Quimicamente instáveis - Categoria A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P210, P222, P377, P381, P403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gás Quimicamente instáveis - Categoria B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gases inflamáveis - Categoria B</t>
   </si>
   <si>
     <t xml:space="preserve">H221 Gás inflamável</t>
   </si>
   <si>
-    <t xml:space="preserve">Gases inflamáveis – Quimicamente instáveis A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H230 Pode reagir explosivamente mesmo na ausência de ar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gases inflamáveis – Quimicamente instáveis B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H231 Pode reagir explosivamente mesmo na ausência de ar em pressão e/ou temperatura elevada(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aerossóis – Categoria 1</t>
+    <t xml:space="preserve">Gases inflamáveis - Categoria 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerossóis – Classificação 1</t>
   </si>
   <si>
     <t xml:space="preserve">H222 Aerossol extremamente Inflamável</t>
@@ -166,13 +166,13 @@
     <t xml:space="preserve">P210, P211, P251, P410 + P412</t>
   </si>
   <si>
-    <t xml:space="preserve">Aerossóis – Categoria 2</t>
+    <t xml:space="preserve">Aerossóis – Classificação 2</t>
   </si>
   <si>
     <t xml:space="preserve">H223 Aerossol inflamável</t>
   </si>
   <si>
-    <t xml:space="preserve">Aerossóis – Categoria 3</t>
+    <t xml:space="preserve">Aerossóis – Classificação 3</t>
   </si>
   <si>
     <t xml:space="preserve">H229 Recipiente pressurizado: pode romper se aquecido</t>
@@ -181,25 +181,25 @@
     <t xml:space="preserve">P210, P251, P410 + P412</t>
   </si>
   <si>
-    <t xml:space="preserve">D.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gases oxidantes – Categoria 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H270 Pode provocar ou agravar um incêndio, oxidante</t>
+    <t xml:space="preserve">C.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gases oxidantes – Classificação 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H270 Pode provocar ou agravar um incêndio, comburente</t>
   </si>
   <si>
     <t xml:space="preserve">P220, P244, P370 + P376, P403</t>
   </si>
   <si>
-    <t xml:space="preserve">Chama sobre circulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gases sob pressão – Categoria Gás comprimido</t>
+    <t xml:space="preserve">oxidante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gás comprimido</t>
   </si>
   <si>
     <t xml:space="preserve">H280 Contém gás sob pressão: pode explodir sob ação do calor</t>
@@ -208,28 +208,28 @@
     <t xml:space="preserve">P410 + P403</t>
   </si>
   <si>
-    <t xml:space="preserve">Cilindro de gás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gases sob pressão – Categoria Gás liquefeito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gases sob pressão – Categoria Gás liquefeito refrigerado</t>
+    <t xml:space="preserve">gas_comprimido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gás liquefeito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gás liquefeito refrigerado</t>
   </si>
   <si>
     <t xml:space="preserve">H281 Contém gás refrigerado: pode causar queimaduras ou lesões Criogênicas</t>
   </si>
   <si>
-    <t xml:space="preserve">P282, P336, P315, P403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gases sob pressão – Categoria Gás dissolvido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Líquidos inflamáveis – Categoria 1</t>
+    <t xml:space="preserve">P282, P336 + P315, P403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gás dissolvido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Líquidos inflamáveis – Classificação 1</t>
   </si>
   <si>
     <t xml:space="preserve">H224 Líquido e vapores extremamente inflamáveis</t>
@@ -238,31 +238,31 @@
     <t xml:space="preserve">P210, P233, P240, P241, P242, P243, P280, P303 + P361 + P353, P370 + P378, P403 + P235, P501</t>
   </si>
   <si>
-    <t xml:space="preserve">Líquidos inflamáveis – Categoria 2</t>
+    <t xml:space="preserve">Líquidos inflamáveis – Classificação 2</t>
   </si>
   <si>
     <t xml:space="preserve">H225 Líquido e vapores altamente inflamáveis</t>
   </si>
   <si>
-    <t xml:space="preserve">Líquidos inflamáveis – Categoria 3</t>
+    <t xml:space="preserve">Líquidos inflamáveis – Classificação 3</t>
   </si>
   <si>
     <t xml:space="preserve">H226 Líquido e vapores inflamáveis</t>
   </si>
   <si>
-    <t xml:space="preserve">Líquidos inflamáveis – Categoria 4</t>
+    <t xml:space="preserve">Líquidos inflamáveis – Classificação 4</t>
   </si>
   <si>
     <t xml:space="preserve">H227 Líquido combustível</t>
   </si>
   <si>
-    <t xml:space="preserve">P210, P280, P370 + P378, P403 + P235, P501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sólidos inflamáveis – Categoria 1</t>
+    <t xml:space="preserve">P210, P280, P370 + P378, P403, P501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sólidos inflamáveis – Classificação 1</t>
   </si>
   <si>
     <t xml:space="preserve">H228 Sólido inflamável</t>
@@ -271,169 +271,175 @@
     <t xml:space="preserve">P210, P240, P241, P280, P370 + P378</t>
   </si>
   <si>
-    <t xml:space="preserve">Sólidos inflamáveis – Categoria 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substâncias e mistura autorreativas – Categoria A</t>
+    <t xml:space="preserve">Sólidos inflamáveis – Classificação 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substâncias e mistura autorreativas – Classificação A</t>
   </si>
   <si>
     <t xml:space="preserve">H240 Pode explodir sob ação do calor</t>
   </si>
   <si>
+    <t xml:space="preserve">P210, P234, P235, P240, P280, P370 + P372 + P380 + P373, P403, P411, P420, P501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substâncias e mistura autorreativas – Classificação B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H241 Pode explodir ou incendiar sob ação do calor</t>
+  </si>
+  <si>
     <t xml:space="preserve">P210, P220, P234, P280, P370 + P378, P370 + P380 + P375, P403 + P235, P411, P420, P501</t>
   </si>
   <si>
-    <t xml:space="preserve">Substâncias e mistura autorreativas – Categoria B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H241 Pode explodir ou incendiar sob ação do calor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bomba explodindo + Chama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substâncias e mistura autorreativas – Categoria C e D</t>
+    <t xml:space="preserve">Substâncias e mistura autorreativas – Classificação C e D</t>
   </si>
   <si>
     <t xml:space="preserve">H242 Pode incendiar sob ação do calor</t>
   </si>
   <si>
-    <t xml:space="preserve">P210, P220, P234, P280, P370 + P378, P403 + P235, P411, P420, P501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substâncias e mistura autorreativas – Categoria E e F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substâncias e mistura autorreativas – Categoria G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Líquidos pirofóricos – Categoria 1</t>
+    <t xml:space="preserve">P210, P234, P235, P240, P280, P370 + P378, P403, P411, P420, P501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substâncias e mistura autorreativas – Classificação E e F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substâncias e mistura autorreativas – Classificação G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Líquidos pirofóricos – Classificação 1</t>
   </si>
   <si>
     <t xml:space="preserve">H250 Inflama-se espontaneamente em contato com o ar</t>
   </si>
   <si>
-    <t xml:space="preserve">P210, P222, P280, P302 + P334, P370 + P378, P422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sólidos Pirofóricos – Categoria 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P210, P222, P280, P335 + P334, P370 + P378, P422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substâncias e misturas sujeitas a auto aquecimento – Categoria 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H251 Sujeito a autoaquecimento, pode se infl amar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P235 + P410, P280, P407, P413, P420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substâncias e misturas sujeitas a auto aquecimento – Categoria 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H252 Sujeito a autoaquecimento em grandes quantidades, pode se infl amar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substâncias e misturas que, em contato com a água, emitem gases inflamáveis – Categoria 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H260 Em contato com a água desprende gases inflamáveis que podem infl amar-se espontaneamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P223, P231 + P232, P280, P335 + P334, P370 + P378, P402 + P404, P501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substâncias e misturas que, em contato com a água, emitem gases inflamáveis – Categoria 2</t>
+    <t xml:space="preserve">P210, P222, P280, P302 + P334, P370 + P378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sólidos Pirofóricos – Classificação 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P210, P222, P233, P280, P302 + P335 + P334, P370 + P378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substâncias e misturas sujeitas a autoaquecimento – Classificação 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H251 Sujeito a autoaquecimento, pode se inflamar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P235, P280, P407, P410, P413, P420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substâncias e misturas sujeitas a auto aquecimento – Classificação 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H252 Sujeito a autoaquecimento em grandes quantidades, pode se inflamar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substâncias e misturas que, em contato com a água, emitem gases inflamáveis – Classificação 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H260 Em contato com a água desprende gases inflamáveis que podem se inflamar espontaneamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P223, P231 + P232, P280, P302 + P335 + P334, P370 + P378, P402 + P404, P501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substâncias e misturas que, em contato com a água, emitem gases inflamáveis – Classificação 2</t>
   </si>
   <si>
     <t xml:space="preserve">H261 Em contato com a água desprende gases inflamáveis</t>
   </si>
   <si>
-    <t xml:space="preserve">Substâncias e misturas que, em contato com a água, emitem gases inflamáveis – Categoria 3</t>
+    <t xml:space="preserve">Substâncias e misturas que, em contato com a água, emitem gases inflamáveis – Classificação 3</t>
   </si>
   <si>
     <t xml:space="preserve">P231 + P232, P280, P370 + P378, P402 + P404, P501</t>
   </si>
   <si>
-    <t xml:space="preserve">D.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Líquidos oxidantes – Categoria 1</t>
+    <t xml:space="preserve">C.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Líquidos oxidantes – Classificação 1</t>
   </si>
   <si>
     <t xml:space="preserve">H271 Pode provocar incêndio ou explosão, muito comburente</t>
   </si>
   <si>
-    <t xml:space="preserve">P210, P220, P221, P280, P283, P306 + P360, P371 + P380 + P375, P370 + P378, P501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Líquidos oxidantes – Categoria 2</t>
+    <t xml:space="preserve">P210, P220, P280, P283, P306 + P360, P371 + P380 + P375, P370 + P378, P420, P501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Líquidos oxidantes – Classificação 2</t>
   </si>
   <si>
     <t xml:space="preserve">H272 Pode agravar um incêndio, comburente</t>
   </si>
   <si>
-    <t xml:space="preserve">P210, P220, P221, P280, P370 + P378, P501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Líquidos oxidantes – Categoria 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sólidos oxidantes – Categoria 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sólidos oxidantes – Categoria 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sólidos oxidantes – Categoria 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peróxidos orgânicos – Categoria A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P210, P220, P234, P280, P411 + P235, P410, P420, P501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peróxidos orgânicos – Categoria B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peróxidos orgânicos – Categoria C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peróxidos orgânicos – Categoria D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peróxidos orgânicos – Categoria E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corrosivo para metais</t>
+    <t xml:space="preserve">P210, P220, P280, P370 + P378, P501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Líquidos oxidantes – Classificação 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sólidos oxidantes – Classificação 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sólidos oxidantes – Classificação 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sólidos oxidantes – Classificação 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peróxidos orgânicos – Classificação A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P210, P234, P325, P240, P280, P370 + P372 + P380 + P373, P403, P410, P411, P420, P501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peróxidos orgânicos – Classificação B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P210, P234, P325, P240, P280, P370 + P380 + P375, P403, P410, P411, P420, P501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peróxidos orgânicos – Classificação C e D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P210, P234, P325, P240, P280, P370 + P378, P403, P410, P411, P420, P501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peróxidos orgânicos – Classificação E e F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peróxidos orgânicos – Classificação G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrosivo para os metais – Classificação 1</t>
   </si>
   <si>
     <t xml:space="preserve">H290 Pode ser corrosivo para os metais</t>
@@ -442,13 +448,41 @@
     <t xml:space="preserve">P234, P390, P406</t>
   </si>
   <si>
-    <t xml:space="preserve">Corrosão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxicidade aguda – Oral – Categoria 1</t>
+    <t xml:space="preserve">corrosivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosivos dessensibilizados - Classificação 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H206 Perigo de incêndio, onda expansiva ou projeção; maior risco de explosão se for reduzido
+o agente dessensibilizante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P210, P212, P230, P233, P280, P370 + P380 + P375, P401, P501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosivos dessensibilizados - Classificação 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H207 Perigo de incêndio ou projeção; maior risco de explosão se for reduzido o agente dessensibilizante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosivos dessensibilizados - Classificação 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosivos dessensibilizados - Classificação 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H208 Perigo de incêndio; maior risco de explosão se for reduzido o agente dessensibilizante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxicidade aguda – Oral – Classificação 1</t>
   </si>
   <si>
     <t xml:space="preserve">H300 Fatal se ingerido</t>
@@ -457,19 +491,19 @@
     <t xml:space="preserve">P264, P270, P301 + P310, P321, P330, P405, P501</t>
   </si>
   <si>
-    <t xml:space="preserve">Crânio e ossos cruzados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxicidade aguda – Oral – Categoria 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxicidade aguda – Oral – Categoria 3</t>
+    <t xml:space="preserve">toxico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxicidade aguda – Oral – Classificação 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxicidade aguda – Oral – Classificação 3</t>
   </si>
   <si>
     <t xml:space="preserve">H301 Tóxico se ingerido</t>
   </si>
   <si>
-    <t xml:space="preserve">Toxicidade aguda – Oral – Categoria 4</t>
+    <t xml:space="preserve">Toxicidade aguda – Oral – Classificação 4</t>
   </si>
   <si>
     <t xml:space="preserve">H302 Nocivo se ingerido</t>
@@ -478,22 +512,22 @@
     <t xml:space="preserve">P264, P270, P301 + P312, P330, P501</t>
   </si>
   <si>
-    <t xml:space="preserve">Ponto de exclamação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxicidade aguda – Oral – Categoria 5</t>
+    <t xml:space="preserve">exclamacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxicidade aguda – Oral – Classificação 5</t>
   </si>
   <si>
     <t xml:space="preserve">H303 Pode ser nocivo se ingerido</t>
   </si>
   <si>
-    <t xml:space="preserve">P312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxicidade aguda – Dérmica – Categoria 1</t>
+    <t xml:space="preserve">P301 + P312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxicidade aguda – Dérmica – Classificação 1</t>
   </si>
   <si>
     <t xml:space="preserve">H310 Fatal em contato com a pele</t>
@@ -502,10 +536,10 @@
     <t xml:space="preserve">P262, P264, P270, P280, P302 + P352, P310, P321, P361 + P364, P405, P501</t>
   </si>
   <si>
-    <t xml:space="preserve">Toxicidade aguda – Dérmica – Categoria 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxicidade aguda – Dérmica – Categoria 3</t>
+    <t xml:space="preserve">Toxicidade aguda – Dérmica – Classificação 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxicidade aguda – Dérmica – Classificação 3</t>
   </si>
   <si>
     <t xml:space="preserve">H311 Tóxico em contato com a pele</t>
@@ -514,40 +548,40 @@
     <t xml:space="preserve">P280, P302 + P352, P312, P321, P361 + P364, P405, P501</t>
   </si>
   <si>
-    <t xml:space="preserve">Toxicidade aguda – Dérmica – Categoria 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H312Nocivo em contato com a pele</t>
+    <t xml:space="preserve">Toxicidade aguda – Dérmica – Classificação 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H312 Nocivo em contato com a pele</t>
   </si>
   <si>
     <t xml:space="preserve">P280, P302 + P352, P312, P321, P361 + P364, P501</t>
   </si>
   <si>
-    <t xml:space="preserve">Toxicidade aguda – Dérmica – Categoria 5</t>
+    <t xml:space="preserve">Toxicidade aguda – Dérmica – Classificação 5</t>
   </si>
   <si>
     <t xml:space="preserve">H313 Pode ser nocivo em contato com a pele</t>
   </si>
   <si>
-    <t xml:space="preserve">D.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxicidade aguda – Inalação – Categoria 1</t>
+    <t xml:space="preserve">P302 + P312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxicidade aguda – Inalação – Classificação 1</t>
   </si>
   <si>
     <t xml:space="preserve">H330 Fatal se inalado</t>
   </si>
   <si>
-    <t xml:space="preserve">P260, P271,P284, P304 + P340, P310, P320, P403 + P233, P405, P501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxicidade aguda – Inalação – Categoria 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H330 Fatal se ialado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxicidade aguda – Inalação – Categoria 3</t>
+    <t xml:space="preserve">P260, P271, P284, P304 + P340, P310, P320, P403 + P233, P405, P501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxicidade aguda – Inalação – Classificação 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxicidade aguda – Inalação – Classificação 3</t>
   </si>
   <si>
     <t xml:space="preserve">H331 Tóxico se inalado</t>
@@ -556,7 +590,7 @@
     <t xml:space="preserve">P261, P271, P304 + P340, P311, P321, P403 + P233, P405, P501</t>
   </si>
   <si>
-    <t xml:space="preserve">Toxicidade aguda – Inalação – Categoria 4</t>
+    <t xml:space="preserve">Toxicidade aguda – Inalação – Classificação 4</t>
   </si>
   <si>
     <t xml:space="preserve">H332 Nocivo se inalado</t>
@@ -565,43 +599,43 @@
     <t xml:space="preserve">P261, P271, P304 + P340, P312</t>
   </si>
   <si>
-    <t xml:space="preserve">Toxicidade aguda – Inalação – Categoria 5</t>
+    <t xml:space="preserve">Toxicidade aguda – Inalação – Classificação 5</t>
   </si>
   <si>
     <t xml:space="preserve">H333 Pode ser nocivo se inalado</t>
   </si>
   <si>
-    <t xml:space="preserve">P304 + P340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corrosão/irritação à pele – Categoria 1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H314 Provoca queimadura severa à pele e dano aos olhos</t>
+    <t xml:space="preserve">P304 + P312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrosão/irritação à pele – Classificação 1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H314 Provoca queimaduras graves à pele e lesões oculares graves</t>
   </si>
   <si>
     <t xml:space="preserve">P260, P264, P280, P301 + P330 + P331, P303 + P361 + P353, P363, P304 + P340, P310,  P321, P305 + P351 + P338, P405, P501</t>
   </si>
   <si>
-    <t xml:space="preserve">Corrosão/irritação à pele – Categoria 1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corrosão/irritação à pele – Categoria 1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corrosão/irritação à pele – Categoria 2</t>
+    <t xml:space="preserve">Corrosão/irritação à pele – Classificação 1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrosão/irritação à pele – Classificação 1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrosão/irritação à pele – Classificação 2</t>
   </si>
   <si>
     <t xml:space="preserve">H315 Provoca irritação à pele</t>
   </si>
   <si>
-    <t xml:space="preserve">P264, P280, P302 + P352, P321, P332 + P313, P332 + P313, P362 + P364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corrosão/irritação à pele – Categoria 3</t>
+    <t xml:space="preserve">P264, P280, P302 + P352, P321, P332 + P313, P362 + P364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrosão/irritação à pele – Classificação 3</t>
   </si>
   <si>
     <t xml:space="preserve">H316 Provoca irritação moderada a pele</t>
@@ -610,19 +644,19 @@
     <t xml:space="preserve">P332 + P313</t>
   </si>
   <si>
-    <t xml:space="preserve">D.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesões oculares graves/irritação ocular – Categoria 1</t>
+    <t xml:space="preserve">C.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesões oculares graves/irritação ocular – Classificação 1</t>
   </si>
   <si>
     <t xml:space="preserve">H318 Provoca lesões oculares graves</t>
   </si>
   <si>
-    <t xml:space="preserve">P280, P305 + P351 + P338, P310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesões oculares graves/irritação ocular – Categoria 2A</t>
+    <t xml:space="preserve">P280, P305 + P351 + P338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesões oculares graves/irritação ocular – Classificação 2A</t>
   </si>
   <si>
     <t xml:space="preserve">H319 Provoca irritação ocular grave</t>
@@ -631,7 +665,7 @@
     <t xml:space="preserve">P264, P280, P305 + P351 + P338, P337 + P313</t>
   </si>
   <si>
-    <t xml:space="preserve">Lesões oculares graves/irritação ocular – Categoria 2B</t>
+    <t xml:space="preserve">Lesões oculares graves/irritação ocular – Classificação 2B</t>
   </si>
   <si>
     <t xml:space="preserve">H320 Provoca irritação ocular</t>
@@ -640,10 +674,10 @@
     <t xml:space="preserve">P264, P305 + P351 + P338, P337 + P313</t>
   </si>
   <si>
-    <t xml:space="preserve">D.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensibilização respiratória – Categoria 1</t>
+    <t xml:space="preserve">C.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensibilização respiratória – Classificação 1 e subcategorias 1A e 1B</t>
   </si>
   <si>
     <t xml:space="preserve">H334 Quando inalado pode provocar sintomas alérgicos, de asma ou dificuldades respiratórias</t>
@@ -652,25 +686,25 @@
     <t xml:space="preserve">P261, P284, P304 + P340, P342 + P311, P501</t>
   </si>
   <si>
-    <t xml:space="preserve">Perigoso à saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensibilização à pele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H317 Pode provocar reaçoes alérgicas na pele</t>
+    <t xml:space="preserve">perigo_a_saude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensibilização da pele - Classificação 1 e subcategorias 1A e 1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H317 Pode provocar reações alérgicas na pele</t>
   </si>
   <si>
     <t xml:space="preserve">P261, P272, P280, P302 + P352, P333 + P313, P321, P362 + P364, P501</t>
   </si>
   <si>
-    <t xml:space="preserve">D.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutagenicidade em células germinativas – Categoria 1A</t>
+    <t xml:space="preserve">C.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutagenicidade em células germinativas – Classificação 1A</t>
   </si>
   <si>
     <t xml:space="preserve">H340 Pode provocar defeitos genéticos</t>
@@ -679,46 +713,46 @@
     <t xml:space="preserve">P201, P202, P280, P308 + P313, P405, P501</t>
   </si>
   <si>
-    <t xml:space="preserve">Mutagenicidade em células germinativas – Categoria 1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutagenicidade em células germinativas – Categoria 2</t>
+    <t xml:space="preserve">Mutagenicidade em células germinativas – Classificação 1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutagenicidade em células germinativas – Classificação 2</t>
   </si>
   <si>
     <t xml:space="preserve">H341 Suspeito de provocar defeitos genéticos</t>
   </si>
   <si>
-    <t xml:space="preserve">D.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carcinogenicidade – Categoria 1A</t>
+    <t xml:space="preserve">C.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carcinogenicidade – Classificação 1A</t>
   </si>
   <si>
     <t xml:space="preserve">H350 Pode provocar câncer</t>
   </si>
   <si>
-    <t xml:space="preserve">Carcinogenicidade – Categoria 1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carcinogenicidade – Categoria 2</t>
+    <t xml:space="preserve">Carcinogenicidade – Classificação 1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carcinogenicidade – Classificação 2</t>
   </si>
   <si>
     <t xml:space="preserve">H351 Suspeito de provocar câncer</t>
   </si>
   <si>
-    <t xml:space="preserve">D.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxicidade à reprodução – Categoria 1A</t>
+    <t xml:space="preserve">C.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxicidade à reprodução – Classificação 1A</t>
   </si>
   <si>
     <t xml:space="preserve">H360 Pode prejudicar a fertilidade ou o feto</t>
   </si>
   <si>
-    <t xml:space="preserve">Toxicidade à reprodução – Categoria 1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxicidade à reprodução – Categoria 2</t>
+    <t xml:space="preserve">Toxicidade à reprodução – Classificação 1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxicidade à reprodução – Classificação 2</t>
   </si>
   <si>
     <t xml:space="preserve">H361 Suspeita-se que prejudique a fertilidade ou o feto</t>
@@ -727,16 +761,16 @@
     <t xml:space="preserve">Toxicidade à reprodução – Categoria adicional para efeitos sobre ou via lactação</t>
   </si>
   <si>
-    <t xml:space="preserve">H362 Pode ser nocivo ás crianças alimentadas com leite materno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P201, P260, P263, P264 P270, P308 + P313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxicidade para órgãos-alvo específicos – Exposição única – Categoria 1</t>
+    <t xml:space="preserve">H362 Pode ser nocivo às crianças alimentadas com leite materno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P201, P202, P260, P263, P264, P270, P308 + P313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxicidade para órgãos-alvo específicos – Exposição única – Classificação 1</t>
   </si>
   <si>
     <t xml:space="preserve">H370 Provoca danos aos órgãos</t>
@@ -745,25 +779,25 @@
     <t xml:space="preserve">P260, P264, P270, P308 + P311, P321, P405, P501</t>
   </si>
   <si>
-    <t xml:space="preserve">Toxicidade para órgãos-alvo específicos – Exposição única – Categoria 2</t>
+    <t xml:space="preserve">Toxicidade para órgãos-alvo específicos – Exposição única – Classificação 2</t>
   </si>
   <si>
     <t xml:space="preserve">H371 Pode provocar danos aos órgãos</t>
   </si>
   <si>
-    <t xml:space="preserve">Toxicidade para órgãos-alvo específicos – Exposição única – Categoria 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H335 Pode provocar irritação das vias respiratóras ou H336 Pode provocar sonolência ou vertigem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P261, P271, P304 + P340, P312, P403 + P233 P405, P501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxicidade para órgãos-alvo específicos – Exposição repetida – Categoria 1</t>
+    <t xml:space="preserve">Toxicidade para órgãos-alvo específicos – Exposição única – Classificação 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H335 Pode provocar irritação das vias respiratóras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P261, P271, P304 + P340, P312, P403 + P233, P405, P501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxicidade para órgãos-alvo específicos – Exposição repetida – Classificação 1</t>
   </si>
   <si>
     <t xml:space="preserve">H372 Provoca danos aos órgãos</t>
@@ -772,7 +806,7 @@
     <t xml:space="preserve">P260, P264, P270, P314, P501</t>
   </si>
   <si>
-    <t xml:space="preserve">Toxicidade para órgãos-alvo específicos – Exposição repetida – Categoria 2</t>
+    <t xml:space="preserve">Toxicidade para órgãos-alvo específicos – Exposição repetida – Classificação 2</t>
   </si>
   <si>
     <t xml:space="preserve">H373 Pode provocar danos aos órgãos</t>
@@ -781,28 +815,28 @@
     <t xml:space="preserve">P260, P314, P501</t>
   </si>
   <si>
-    <t xml:space="preserve">D.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perigo por aspiração – Categoria 1</t>
+    <t xml:space="preserve">C.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perigo por aspiração – Classificação 1</t>
   </si>
   <si>
     <t xml:space="preserve">H304 Pode ser fatal se ingerido e penetrar nas vias respiratórias</t>
   </si>
   <si>
-    <t xml:space="preserve">P301 + P310, P331 P405, P501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perigo por aspiração – Categoria 2</t>
+    <t xml:space="preserve">P301 + P310, P331, P405, P501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perigo por aspiração – Classificação 2</t>
   </si>
   <si>
     <t xml:space="preserve">H305 Pode ser nocivo se ingerido e penetrar nas vias respiratórias</t>
   </si>
   <si>
-    <t xml:space="preserve">D.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perigoso ao ambiente aquático – Agudo – Categoria 1</t>
+    <t xml:space="preserve">C.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perigoso ao ambiente aquático – Agudo – Classificação 1</t>
   </si>
   <si>
     <t xml:space="preserve">H400 Muito tóxico para os organismos aquáticos</t>
@@ -811,10 +845,10 @@
     <t xml:space="preserve">P273, P391, P501</t>
   </si>
   <si>
-    <t xml:space="preserve">Meio ambiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perigoso ao ambiente aquático – Agudo – Categoria 2</t>
+    <t xml:space="preserve">ambiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perigoso ao ambiente aquático – Agudo – Classificação 2</t>
   </si>
   <si>
     <t xml:space="preserve">H401 Tóxico para os organismos aquáticos</t>
@@ -823,28 +857,28 @@
     <t xml:space="preserve">P273,  P501</t>
   </si>
   <si>
-    <t xml:space="preserve">Perigoso ao ambiente aquático – Agudo – Categoria 3</t>
+    <t xml:space="preserve">Perigoso ao ambiente aquático – Agudo – Classificação 3</t>
   </si>
   <si>
     <t xml:space="preserve">H402 Nocivo para os organismos aquáticos</t>
   </si>
   <si>
-    <t xml:space="preserve">D.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perigoso ao ambiente aquático – Crônico – Categoria 1</t>
+    <t xml:space="preserve">C.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perigoso ao ambiente aquático – Crônico – Classificação 1</t>
   </si>
   <si>
     <t xml:space="preserve">H410 Muito tóxico para os organismos aquáticos, com efeitos prolongados</t>
   </si>
   <si>
-    <t xml:space="preserve">Perigoso ao ambiente aquático – Crônico – Categoria 2</t>
+    <t xml:space="preserve">Perigoso ao ambiente aquático – Crônico – Classificação 2</t>
   </si>
   <si>
     <t xml:space="preserve">H411 Tóxico para os organismos aquáticos, com efeitos prolongados</t>
   </si>
   <si>
-    <t xml:space="preserve">Perigoso ao ambiente aquático – Crônico – Categoria 3</t>
+    <t xml:space="preserve">Perigoso ao ambiente aquático – Crônico – Classificação 3</t>
   </si>
   <si>
     <t xml:space="preserve">H412 Nocivo para os organismos aquáticos, com efeitos prolongados</t>
@@ -853,16 +887,16 @@
     <t xml:space="preserve">P273, P501</t>
   </si>
   <si>
-    <t xml:space="preserve">Perigoso ao ambiente aquático – Crônico – Categoria 4</t>
+    <t xml:space="preserve">Perigoso ao ambiente aquático – Crônico – Classificação 4</t>
   </si>
   <si>
     <t xml:space="preserve">H413 Pode provocar efeitos nocivos aquáticos, com efeitos prolongados</t>
   </si>
   <si>
-    <t xml:space="preserve">D.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perigoso à camada de ozônio – Categoria 1</t>
+    <t xml:space="preserve">C.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perigoso à camada de ozônio – Classificação 1</t>
   </si>
   <si>
     <t xml:space="preserve">H420 Provoca danos à saúde pública e ao meio ambiente pela destruição da camada de ozônio</t>
@@ -878,7 +912,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -906,11 +940,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -976,12 +1005,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1001,20 +1030,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F106" activeCellId="0" sqref="F106"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="31.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="79.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="31.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,7 +1076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -1191,7 +1221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -1214,13 +1244,13 @@
         <v>29</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -1234,10 +1264,10 @@
         <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>29</v>
@@ -1249,27 +1279,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>14</v>
@@ -1283,25 +1313,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>15</v>
@@ -1312,25 +1342,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>15</v>
@@ -1341,25 +1371,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>15</v>
@@ -1370,22 +1400,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>14</v>
@@ -1394,27 +1424,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>26</v>
@@ -1431,22 +1461,22 @@
         <v>44</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>15</v>
@@ -1457,51 +1487,51 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>26</v>
@@ -1510,36 +1540,36 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
@@ -1547,16 +1577,16 @@
         <v>58</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>62</v>
@@ -1576,12 +1606,12 @@
         <v>58</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -1602,25 +1632,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>36</v>
+        <v>66</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>15</v>
@@ -1631,25 +1661,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>36</v>
+        <v>67</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>15</v>
@@ -1663,28 +1693,28 @@
         <v>68</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>36</v>
+      <c r="G23" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
@@ -1692,22 +1722,22 @@
         <v>68</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>15</v>
@@ -1718,51 +1748,51 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>36</v>
+        <v>71</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>36</v>
+        <v>77</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>26</v>
@@ -1776,22 +1806,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>14</v>
@@ -1805,25 +1835,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>15</v>
@@ -1837,19 +1867,19 @@
         <v>84</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>36</v>
+        <v>86</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>14</v>
@@ -1866,28 +1896,28 @@
         <v>84</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>36</v>
+        <v>90</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
@@ -1895,22 +1925,22 @@
         <v>84</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>15</v>
@@ -1921,25 +1951,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>36</v>
+        <v>93</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>15</v>
@@ -1950,25 +1980,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>15</v>
@@ -1979,22 +2009,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>36</v>
+        <v>99</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>14</v>
@@ -2008,25 +2038,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>36</v>
+        <v>98</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>15</v>
@@ -2037,22 +2067,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>36</v>
+        <v>106</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>14</v>
@@ -2066,25 +2096,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>36</v>
+        <v>108</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>15</v>
@@ -2098,22 +2128,22 @@
         <v>109</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>36</v>
+        <v>111</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>15</v>
@@ -2124,22 +2154,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>57</v>
+        <v>112</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>14</v>
@@ -2153,25 +2183,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>57</v>
+        <v>114</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>15</v>
@@ -2185,22 +2215,22 @@
         <v>117</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>15</v>
@@ -2211,21 +2241,21 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="G42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H42" s="0" t="s">
@@ -2240,25 +2270,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>15</v>
@@ -2272,22 +2302,22 @@
         <v>125</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G44" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>15</v>
@@ -2298,22 +2328,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>13</v>
+        <v>123</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>14</v>
@@ -2327,25 +2357,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>90</v>
+        <v>122</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>15</v>
@@ -2359,19 +2389,19 @@
         <v>129</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>36</v>
+      <c r="G47" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>14</v>
@@ -2388,28 +2418,28 @@
         <v>129</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>36</v>
+        <v>89</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>48</v>
       </c>
@@ -2417,48 +2447,48 @@
         <v>129</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="G49" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>137</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>139</v>
+        <v>92</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>135</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>26</v>
@@ -2467,85 +2497,85 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>144</v>
-      </c>
       <c r="G52" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F53" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>144</v>
       </c>
+      <c r="E53" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="G53" s="0" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>14</v>
@@ -2554,30 +2584,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>15</v>
@@ -2588,22 +2618,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>155</v>
+        <v>148</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>26</v>
@@ -2617,51 +2647,51 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>159</v>
+        <v>151</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>145</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>14</v>
@@ -2675,22 +2705,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>145</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>14</v>
@@ -2704,51 +2734,51 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G59" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C59" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>152</v>
-      </c>
       <c r="H59" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>26</v>
@@ -2757,30 +2787,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>15</v>
@@ -2791,22 +2821,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C62" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="F62" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>14</v>
@@ -2820,22 +2850,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C63" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="F63" s="0" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>14</v>
@@ -2849,25 +2879,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>15</v>
@@ -2878,22 +2908,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>26</v>
@@ -2902,30 +2932,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>15</v>
@@ -2936,22 +2966,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F67" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C67" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>187</v>
-      </c>
       <c r="G67" s="0" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>14</v>
@@ -2965,22 +2995,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F68" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C68" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>187</v>
-      </c>
       <c r="G68" s="0" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>14</v>
@@ -2994,25 +3024,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>15</v>
@@ -3023,22 +3053,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>26</v>
@@ -3047,30 +3077,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>15</v>
@@ -3081,25 +3111,25 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C72" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>200</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>15</v>
@@ -3110,51 +3140,51 @@
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>14</v>
@@ -3168,22 +3198,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>26</v>
@@ -3192,30 +3222,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>15</v>
@@ -3226,22 +3256,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>14</v>
@@ -3255,22 +3285,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>26</v>
@@ -3279,56 +3309,56 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>14</v>
@@ -3345,19 +3375,19 @@
         <v>222</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>26</v>
@@ -3371,22 +3401,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D82" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F82" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="G82" s="0" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>14</v>
@@ -3400,22 +3430,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D83" s="0" t="s">
-        <v>231</v>
+      <c r="D83" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>14</v>
@@ -3429,22 +3459,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D84" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="F84" s="0" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>26</v>
@@ -3458,25 +3488,25 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="E85" s="1" t="s">
         <v>235</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>15</v>
@@ -3487,22 +3517,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>14</v>
@@ -3516,22 +3546,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D87" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="C87" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="E87" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>26</v>
@@ -3545,25 +3575,25 @@
         <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>15</v>
@@ -3574,22 +3604,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>14</v>
@@ -3603,22 +3633,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>26</v>
@@ -3632,27 +3662,27 @@
         <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>254</v>
+        <v>4</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>256</v>
+        <v>246</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="H91" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I91" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3661,51 +3691,51 @@
         <v>91</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>92</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>26</v>
@@ -3719,25 +3749,25 @@
         <v>93</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>15</v>
@@ -3748,25 +3778,25 @@
         <v>94</v>
       </c>
       <c r="B95" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C95" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="F95" s="0" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>15</v>
@@ -3777,22 +3807,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>26</v>
@@ -3806,25 +3836,25 @@
         <v>96</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>15</v>
@@ -3835,54 +3865,54 @@
         <v>97</v>
       </c>
       <c r="B98" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C98" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="F98" s="0" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>98</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>29</v>
+        <v>274</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>15</v>
@@ -3893,30 +3923,205 @@
         <v>99</v>
       </c>
       <c r="B100" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="F101" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C102" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D102" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F100" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="G100" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H100" s="0" t="s">
+      <c r="C103" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="G104" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="G105" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="H106" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
+      <c r="I106" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
